--- a/data/news/2022-03-22_news.xlsx
+++ b/data/news/2022-03-22_news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\news_analysis\data\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D17259-9B1C-442E-BEAD-04C2A9E1847E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B277F6-C0BB-48B8-9182-E85A59269D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62205" yWindow="2880" windowWidth="18720" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4089,9 +4089,6 @@
     <t>news_source</t>
   </si>
   <si>
-    <t>new_topic</t>
-  </si>
-  <si>
     <t>news_title</t>
   </si>
   <si>
@@ -4102,6 +4099,10 @@
   </si>
   <si>
     <t>news_text</t>
+  </si>
+  <si>
+    <t>news_topic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4476,7 +4477,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4492,19 +4493,19 @@
         <v>806</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
